--- a/output/scores/tuning_dnn.xlsx
+++ b/output/scores/tuning_dnn.xlsx
@@ -20,9 +20,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="18">
   <si>
-    <t xml:space="preserve">lstm</t>
+    <t xml:space="preserve">lstm, train word embedding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lstm 150</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lstm 200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lstm=100, dropout=0.3</t>
   </si>
   <si>
     <t xml:space="preserve">precision</t>
@@ -41,6 +50,12 @@
   </si>
   <si>
     <t xml:space="preserve"> HELDOUT :</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oov=zeros</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oov=rand</t>
   </si>
   <si>
     <t xml:space="preserve">cnn</t>
@@ -360,10 +375,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AI23"/>
+  <dimension ref="A1:AI36"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H29" activeCellId="0" sqref="H29"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I15" activeCellId="0" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -375,7 +390,9 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="8.1"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="14.41"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="8" style="0" width="5.04"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="8" style="0" width="5.04"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="11.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="12" style="0" width="5.04"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="14" style="0" width="11.52"/>
   </cols>
   <sheetData>
@@ -383,19 +400,76 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="G1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="0"/>
+      <c r="I1" s="0"/>
+      <c r="J1" s="0"/>
+      <c r="K1" s="0"/>
+      <c r="M1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="N1" s="0"/>
+      <c r="O1" s="0"/>
+      <c r="P1" s="0"/>
+      <c r="Q1" s="0"/>
+      <c r="S1" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="T1" s="0"/>
+      <c r="U1" s="0"/>
+      <c r="V1" s="0"/>
+      <c r="W1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="0" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>4</v>
+        <v>7</v>
+      </c>
+      <c r="H2" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="N2" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="O2" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="P2" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q2" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="T2" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="U2" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="V2" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="W2" s="0" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -414,6 +488,51 @@
       <c r="E3" s="0" t="n">
         <v>115</v>
       </c>
+      <c r="G3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" s="0" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="I3" s="0" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="J3" s="0" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="K3" s="0" t="n">
+        <v>115</v>
+      </c>
+      <c r="M3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" s="0" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="O3" s="0" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="P3" s="0" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="Q3" s="0" t="n">
+        <v>115</v>
+      </c>
+      <c r="S3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" s="0" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="U3" s="0" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="V3" s="0" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="W3" s="0" t="n">
+        <v>115</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
@@ -431,10 +550,55 @@
       <c r="E4" s="0" t="n">
         <v>1892</v>
       </c>
+      <c r="G4" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H4" s="0" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="I4" s="0" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="J4" s="0" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="K4" s="0" t="n">
+        <v>1892</v>
+      </c>
+      <c r="M4" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="N4" s="0" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="O4" s="0" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="P4" s="0" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="Q4" s="0" t="n">
+        <v>1892</v>
+      </c>
+      <c r="S4" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="T4" s="0" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="U4" s="0" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="V4" s="0" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="W4" s="0" t="n">
+        <v>1892</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0.67</v>
@@ -448,24 +612,114 @@
       <c r="E5" s="0" t="n">
         <v>2007</v>
       </c>
+      <c r="G5" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="H5" s="0" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="I5" s="0" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="J5" s="0" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="K5" s="0" t="n">
+        <v>2007</v>
+      </c>
+      <c r="M5" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="N5" s="0" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="O5" s="0" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="P5" s="0" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="Q5" s="0" t="n">
+        <v>2007</v>
+      </c>
+      <c r="S5" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="T5" s="0" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="U5" s="0" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="V5" s="0" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="W5" s="0" t="n">
+        <v>2007</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>6</v>
+        <v>9</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="M7" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="S7" s="0" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="0" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>4</v>
+        <v>7</v>
+      </c>
+      <c r="H8" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="I8" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="J8" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="K8" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="N8" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="O8" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="P8" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q8" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="T8" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="U8" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="V8" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="W8" s="0" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -484,6 +738,51 @@
       <c r="E9" s="0" t="n">
         <v>38</v>
       </c>
+      <c r="G9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I9" s="0" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="J9" s="0" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="K9" s="0" t="n">
+        <v>38</v>
+      </c>
+      <c r="M9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="O9" s="0" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="P9" s="0" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="Q9" s="0" t="n">
+        <v>38</v>
+      </c>
+      <c r="S9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="U9" s="0" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="V9" s="0" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="W9" s="0" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="n">
@@ -501,10 +800,55 @@
       <c r="E10" s="0" t="n">
         <v>632</v>
       </c>
+      <c r="G10" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H10" s="0" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="I10" s="0" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="J10" s="0" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="K10" s="0" t="n">
+        <v>632</v>
+      </c>
+      <c r="M10" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="N10" s="0" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="O10" s="0" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="P10" s="0" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="Q10" s="0" t="n">
+        <v>632</v>
+      </c>
+      <c r="S10" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="T10" s="0" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="U10" s="0" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="V10" s="0" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="W10" s="0" t="n">
+        <v>632</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0.7</v>
@@ -518,99 +862,84 @@
       <c r="E11" s="0" t="n">
         <v>670</v>
       </c>
-    </row>
-    <row r="13" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G11" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="H11" s="0" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="I11" s="0" t="n">
+        <v>0.56</v>
+      </c>
+      <c r="J11" s="0" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="K11" s="0" t="n">
+        <v>670</v>
+      </c>
+      <c r="M11" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="N11" s="0" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="O11" s="0" t="n">
+        <v>0.56</v>
+      </c>
+      <c r="P11" s="0" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="Q11" s="0" t="n">
+        <v>670</v>
+      </c>
+      <c r="S11" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="T11" s="0" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="U11" s="0" t="n">
+        <v>0.56</v>
+      </c>
+      <c r="V11" s="0" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="W11" s="0" t="n">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="M13" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="S13" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="Y13" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="AE13" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="0" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I14" s="0" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J14" s="0" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K14" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="N14" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="O14" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="P14" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q14" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="T14" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="U14" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="V14" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="W14" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z14" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="AA14" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="AB14" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="AC14" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="AF14" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="AG14" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="AH14" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="AI14" s="0" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -618,13 +947,13 @@
         <v>0</v>
       </c>
       <c r="B15" s="0" t="n">
-        <v>0.39</v>
+        <v>0.6</v>
       </c>
       <c r="C15" s="0" t="n">
-        <v>0.21</v>
+        <v>0.03</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>0.27</v>
+        <v>0.05</v>
       </c>
       <c r="E15" s="0" t="n">
         <v>115</v>
@@ -633,87 +962,27 @@
         <v>0</v>
       </c>
       <c r="H15" s="0" t="n">
-        <v>0.34</v>
+        <v>0.3</v>
       </c>
       <c r="I15" s="0" t="n">
-        <v>0.19</v>
+        <v>0.03</v>
       </c>
       <c r="J15" s="0" t="n">
-        <v>0.25</v>
+        <v>0.05</v>
       </c>
       <c r="K15" s="0" t="n">
         <v>115</v>
       </c>
-      <c r="M15" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" s="0" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="O15" s="0" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="P15" s="0" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="Q15" s="0" t="n">
-        <v>115</v>
-      </c>
-      <c r="S15" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="T15" s="0" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="U15" s="0" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="V15" s="0" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="W15" s="0" t="n">
-        <v>115</v>
-      </c>
-      <c r="Y15" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z15" s="0" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="AA15" s="0" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="AB15" s="0" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="AC15" s="0" t="n">
-        <v>115</v>
-      </c>
-      <c r="AE15" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF15" s="0" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="AG15" s="0" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="AH15" s="0" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="AI15" s="0" t="n">
-        <v>115</v>
-      </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="n">
         <v>2</v>
       </c>
       <c r="B16" s="0" t="n">
-        <v>0.95</v>
+        <v>0.94</v>
       </c>
       <c r="C16" s="0" t="n">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="D16" s="0" t="n">
         <v>0.97</v>
@@ -725,262 +994,82 @@
         <v>2</v>
       </c>
       <c r="H16" s="0" t="n">
-        <v>0.95</v>
+        <v>0.94</v>
       </c>
       <c r="I16" s="0" t="n">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="J16" s="0" t="n">
-        <v>0.96</v>
+        <v>0.97</v>
       </c>
       <c r="K16" s="0" t="n">
         <v>1892</v>
       </c>
-      <c r="M16" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="N16" s="0" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="O16" s="0" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="P16" s="0" t="n">
-        <v>0.97</v>
-      </c>
-      <c r="Q16" s="0" t="n">
-        <v>1892</v>
-      </c>
-      <c r="S16" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="T16" s="0" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="U16" s="0" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="V16" s="0" t="n">
-        <v>0.96</v>
-      </c>
-      <c r="W16" s="0" t="n">
-        <v>1892</v>
-      </c>
-      <c r="Y16" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="Z16" s="0" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="AA16" s="0" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="AB16" s="0" t="n">
-        <v>0.96</v>
-      </c>
-      <c r="AC16" s="0" t="n">
-        <v>1892</v>
-      </c>
-      <c r="AE16" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="AF16" s="0" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="AG16" s="0" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="AH16" s="0" t="n">
-        <v>0.96</v>
-      </c>
-      <c r="AI16" s="0" t="n">
-        <v>1892</v>
-      </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B17" s="0" t="n">
-        <v>0.67</v>
+        <v>0.77</v>
       </c>
       <c r="C17" s="0" t="n">
-        <v>0.59</v>
+        <v>0.51</v>
       </c>
       <c r="D17" s="0" t="n">
-        <v>0.62</v>
+        <v>0.51</v>
       </c>
       <c r="E17" s="0" t="n">
         <v>2007</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H17" s="0" t="n">
-        <v>0.65</v>
+        <v>0.62</v>
       </c>
       <c r="I17" s="0" t="n">
-        <v>0.58</v>
+        <v>0.51</v>
       </c>
       <c r="J17" s="0" t="n">
-        <v>0.61</v>
+        <v>0.51</v>
       </c>
       <c r="K17" s="0" t="n">
         <v>2007</v>
       </c>
-      <c r="M17" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="N17" s="0" t="n">
-        <v>0.66</v>
-      </c>
-      <c r="O17" s="0" t="n">
-        <v>0.59</v>
-      </c>
-      <c r="P17" s="0" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="Q17" s="0" t="n">
-        <v>2007</v>
-      </c>
-      <c r="S17" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="T17" s="0" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="U17" s="0" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="V17" s="0" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="W17" s="0" t="n">
-        <v>2007</v>
-      </c>
-      <c r="Y17" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z17" s="0" t="n">
-        <v>0.63</v>
-      </c>
-      <c r="AA17" s="0" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="AB17" s="0" t="n">
-        <v>0.59</v>
-      </c>
-      <c r="AC17" s="0" t="n">
-        <v>2007</v>
-      </c>
-      <c r="AE17" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="AF17" s="0" t="n">
-        <v>0.63</v>
-      </c>
-      <c r="AG17" s="0" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="AH17" s="0" t="n">
-        <v>0.59</v>
-      </c>
-      <c r="AI17" s="0" t="n">
-        <v>2007</v>
-      </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="M19" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="S19" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="Y19" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="AE19" s="0" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="0" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I20" s="0" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J20" s="0" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K20" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="N20" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="O20" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="P20" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q20" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="T20" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="U20" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="V20" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="W20" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z20" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="AA20" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="AB20" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="AC20" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="AF20" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="AG20" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="AH20" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="AI20" s="0" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -988,13 +1077,13 @@
         <v>0</v>
       </c>
       <c r="B21" s="0" t="n">
-        <v>0.33</v>
+        <v>0.56</v>
       </c>
       <c r="C21" s="0" t="n">
-        <v>0.11</v>
+        <v>0.13</v>
       </c>
       <c r="D21" s="0" t="n">
-        <v>0.16</v>
+        <v>0.21</v>
       </c>
       <c r="E21" s="0" t="n">
         <v>38</v>
@@ -1003,77 +1092,17 @@
         <v>0</v>
       </c>
       <c r="H21" s="0" t="n">
-        <v>0.29</v>
+        <v>0.5</v>
       </c>
       <c r="I21" s="0" t="n">
-        <v>0.11</v>
+        <v>0.21</v>
       </c>
       <c r="J21" s="0" t="n">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="K21" s="0" t="n">
         <v>38</v>
       </c>
-      <c r="M21" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" s="0" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="O21" s="0" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="P21" s="0" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="Q21" s="0" t="n">
-        <v>38</v>
-      </c>
-      <c r="S21" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="T21" s="0" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="U21" s="0" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="V21" s="0" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="W21" s="0" t="n">
-        <v>38</v>
-      </c>
-      <c r="Y21" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z21" s="0" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="AA21" s="0" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="AB21" s="0" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="AC21" s="0" t="n">
-        <v>38</v>
-      </c>
-      <c r="AE21" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF21" s="0" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="AG21" s="0" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="AH21" s="0" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="AI21" s="0" t="n">
-        <v>38</v>
-      </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="n">
@@ -1098,7 +1127,7 @@
         <v>0.95</v>
       </c>
       <c r="I22" s="0" t="n">
-        <v>0.98</v>
+        <v>0.99</v>
       </c>
       <c r="J22" s="0" t="n">
         <v>0.97</v>
@@ -1106,156 +1135,776 @@
       <c r="K22" s="0" t="n">
         <v>632</v>
       </c>
-      <c r="M22" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="N22" s="0" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="O22" s="0" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="P22" s="0" t="n">
-        <v>0.97</v>
-      </c>
-      <c r="Q22" s="0" t="n">
-        <v>632</v>
-      </c>
-      <c r="S22" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="T22" s="0" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="U22" s="0" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="V22" s="0" t="n">
-        <v>0.97</v>
-      </c>
-      <c r="W22" s="0" t="n">
-        <v>632</v>
-      </c>
-      <c r="Y22" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="Z22" s="0" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="AA22" s="0" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="AB22" s="0" t="n">
-        <v>0.97</v>
-      </c>
-      <c r="AC22" s="0" t="n">
-        <v>632</v>
-      </c>
-      <c r="AE22" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="AF22" s="0" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="AG22" s="0" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="AH22" s="0" t="n">
-        <v>0.97</v>
-      </c>
-      <c r="AI22" s="0" t="n">
-        <v>632</v>
-      </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B23" s="0" t="n">
-        <v>0.64</v>
+        <v>0.75</v>
       </c>
       <c r="C23" s="0" t="n">
-        <v>0.55</v>
+        <v>0.56</v>
       </c>
       <c r="D23" s="0" t="n">
-        <v>0.56</v>
+        <v>0.59</v>
       </c>
       <c r="E23" s="0" t="n">
         <v>670</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H23" s="0" t="n">
-        <v>0.62</v>
+        <v>0.73</v>
       </c>
       <c r="I23" s="0" t="n">
-        <v>0.54</v>
+        <v>0.6</v>
       </c>
       <c r="J23" s="0" t="n">
-        <v>0.56</v>
+        <v>0.63</v>
       </c>
       <c r="K23" s="0" t="n">
         <v>670</v>
       </c>
-      <c r="M23" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="N23" s="0" t="n">
+    </row>
+    <row r="26" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M26" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="S26" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y26" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE26" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B27" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D27" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="E27" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="H27" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="I27" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="J27" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="K27" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="N27" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="O27" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="P27" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q27" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="T27" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="U27" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="V27" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="W27" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z27" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA27" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB27" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC27" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="AF27" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="AG27" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="AH27" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="AI27" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="B28" s="0" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="C28" s="0" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="D28" s="0" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="E28" s="0" t="n">
+        <v>115</v>
+      </c>
+      <c r="G28" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" s="0" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="I28" s="0" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="J28" s="0" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="K28" s="0" t="n">
+        <v>115</v>
+      </c>
+      <c r="M28" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" s="0" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="O28" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="P28" s="0" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="Q28" s="0" t="n">
+        <v>115</v>
+      </c>
+      <c r="S28" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T28" s="0" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="U28" s="0" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="V28" s="0" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="W28" s="0" t="n">
+        <v>115</v>
+      </c>
+      <c r="Y28" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z28" s="0" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="AA28" s="0" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="AB28" s="0" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="AC28" s="0" t="n">
+        <v>115</v>
+      </c>
+      <c r="AE28" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF28" s="0" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="AG28" s="0" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="AH28" s="0" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="AI28" s="0" t="n">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B29" s="0" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="C29" s="0" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="D29" s="0" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="E29" s="0" t="n">
+        <v>1892</v>
+      </c>
+      <c r="G29" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H29" s="0" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="I29" s="0" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="J29" s="0" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="K29" s="0" t="n">
+        <v>1892</v>
+      </c>
+      <c r="M29" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="N29" s="0" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="O29" s="0" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="P29" s="0" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="Q29" s="0" t="n">
+        <v>1892</v>
+      </c>
+      <c r="S29" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="T29" s="0" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="U29" s="0" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="V29" s="0" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="W29" s="0" t="n">
+        <v>1892</v>
+      </c>
+      <c r="Y29" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z29" s="0" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="AA29" s="0" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="AB29" s="0" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="AC29" s="0" t="n">
+        <v>1892</v>
+      </c>
+      <c r="AE29" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF29" s="0" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="AG29" s="0" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="AH29" s="0" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="AI29" s="0" t="n">
+        <v>1892</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B30" s="0" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="C30" s="0" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="D30" s="0" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="E30" s="0" t="n">
+        <v>2007</v>
+      </c>
+      <c r="G30" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="H30" s="0" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="I30" s="0" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="J30" s="0" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="K30" s="0" t="n">
+        <v>2007</v>
+      </c>
+      <c r="M30" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="N30" s="0" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="O30" s="0" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="P30" s="0" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="Q30" s="0" t="n">
+        <v>2007</v>
+      </c>
+      <c r="S30" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="T30" s="0" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="U30" s="0" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="V30" s="0" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="W30" s="0" t="n">
+        <v>2007</v>
+      </c>
+      <c r="Y30" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z30" s="0" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="AA30" s="0" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="AB30" s="0" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="AC30" s="0" t="n">
+        <v>2007</v>
+      </c>
+      <c r="AE30" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="AF30" s="0" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="AG30" s="0" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="AH30" s="0" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="AI30" s="0" t="n">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="G32" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="M32" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="S32" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y32" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE32" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B33" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C33" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D33" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="E33" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="H33" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="I33" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="J33" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="K33" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="N33" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="O33" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="P33" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q33" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="T33" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="U33" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="V33" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="W33" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z33" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA33" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB33" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC33" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="AF33" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="AG33" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="AH33" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="AI33" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="B34" s="0" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="C34" s="0" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="D34" s="0" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="E34" s="0" t="n">
+        <v>38</v>
+      </c>
+      <c r="G34" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" s="0" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="I34" s="0" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="J34" s="0" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="K34" s="0" t="n">
+        <v>38</v>
+      </c>
+      <c r="M34" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" s="0" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="O34" s="0" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="P34" s="0" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="Q34" s="0" t="n">
+        <v>38</v>
+      </c>
+      <c r="S34" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T34" s="0" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="U34" s="0" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="V34" s="0" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="W34" s="0" t="n">
+        <v>38</v>
+      </c>
+      <c r="Y34" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z34" s="0" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AA34" s="0" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="AB34" s="0" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="AC34" s="0" t="n">
+        <v>38</v>
+      </c>
+      <c r="AE34" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF34" s="0" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="AG34" s="0" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="AH34" s="0" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="AI34" s="0" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B35" s="0" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="C35" s="0" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="D35" s="0" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="E35" s="0" t="n">
+        <v>632</v>
+      </c>
+      <c r="G35" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H35" s="0" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="I35" s="0" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="J35" s="0" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="K35" s="0" t="n">
+        <v>632</v>
+      </c>
+      <c r="M35" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="N35" s="0" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="O35" s="0" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="P35" s="0" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="Q35" s="0" t="n">
+        <v>632</v>
+      </c>
+      <c r="S35" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="T35" s="0" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="U35" s="0" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="V35" s="0" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="W35" s="0" t="n">
+        <v>632</v>
+      </c>
+      <c r="Y35" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z35" s="0" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="AA35" s="0" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="AB35" s="0" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="AC35" s="0" t="n">
+        <v>632</v>
+      </c>
+      <c r="AE35" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF35" s="0" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="AG35" s="0" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="AH35" s="0" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="AI35" s="0" t="n">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B36" s="0" t="n">
         <v>0.64</v>
       </c>
-      <c r="O23" s="0" t="n">
+      <c r="C36" s="0" t="n">
         <v>0.55</v>
       </c>
-      <c r="P23" s="0" t="n">
+      <c r="D36" s="0" t="n">
         <v>0.56</v>
       </c>
-      <c r="Q23" s="0" t="n">
+      <c r="E36" s="0" t="n">
         <v>670</v>
       </c>
-      <c r="S23" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="T23" s="0" t="n">
+      <c r="G36" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="H36" s="0" t="n">
         <v>0.62</v>
       </c>
-      <c r="U23" s="0" t="n">
+      <c r="I36" s="0" t="n">
         <v>0.54</v>
       </c>
-      <c r="V23" s="0" t="n">
+      <c r="J36" s="0" t="n">
         <v>0.56</v>
       </c>
-      <c r="W23" s="0" t="n">
+      <c r="K36" s="0" t="n">
         <v>670</v>
       </c>
-      <c r="Y23" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z23" s="0" t="n">
+      <c r="M36" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="N36" s="0" t="n">
         <v>0.64</v>
       </c>
-      <c r="AA23" s="0" t="n">
+      <c r="O36" s="0" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="P36" s="0" t="n">
         <v>0.56</v>
       </c>
-      <c r="AB23" s="0" t="n">
+      <c r="Q36" s="0" t="n">
+        <v>670</v>
+      </c>
+      <c r="S36" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="T36" s="0" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="U36" s="0" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="V36" s="0" t="n">
+        <v>0.56</v>
+      </c>
+      <c r="W36" s="0" t="n">
+        <v>670</v>
+      </c>
+      <c r="Y36" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z36" s="0" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="AA36" s="0" t="n">
+        <v>0.56</v>
+      </c>
+      <c r="AB36" s="0" t="n">
         <v>0.58</v>
       </c>
-      <c r="AC23" s="0" t="n">
+      <c r="AC36" s="0" t="n">
         <v>670</v>
       </c>
-      <c r="AE23" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="AF23" s="0" t="n">
+      <c r="AE36" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="AF36" s="0" t="n">
         <v>0.63</v>
       </c>
-      <c r="AG23" s="0" t="n">
+      <c r="AG36" s="0" t="n">
         <v>0.55</v>
       </c>
-      <c r="AH23" s="0" t="n">
+      <c r="AH36" s="0" t="n">
         <v>0.56</v>
       </c>
-      <c r="AI23" s="0" t="n">
+      <c r="AI36" s="0" t="n">
         <v>670</v>
       </c>
     </row>
